--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,262 +281,266 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3272,13 +3276,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3329,7 +3333,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3358,7 +3362,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3387,7 +3391,7 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>135</v>
@@ -3440,7 +3444,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3469,11 +3473,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3495,10 +3499,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3553,7 +3557,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3582,7 +3586,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3662,7 +3666,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>86</v>
@@ -3691,7 +3695,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3714,13 +3718,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3771,7 +3775,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3800,7 +3804,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3823,13 +3827,13 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3856,13 +3860,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3880,7 +3884,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3898,18 +3902,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3935,10 +3939,10 @@
         <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3989,7 +3993,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4018,7 +4022,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4041,13 +4045,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4098,7 +4102,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4127,7 +4131,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4156,7 +4160,7 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>135</v>
@@ -4209,7 +4213,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4238,11 +4242,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4264,10 +4268,10 @@
         <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -4322,7 +4326,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4351,7 +4355,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4374,13 +4378,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4407,13 +4411,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4431,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>86</v>
@@ -4460,7 +4464,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4483,13 +4487,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4540,7 +4544,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4569,7 +4573,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4592,16 +4596,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4627,13 +4631,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4651,7 +4655,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4666,21 +4670,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4703,13 +4707,13 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4736,13 +4740,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4760,7 +4764,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4775,7 +4779,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>167</v>
@@ -4784,12 +4788,12 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4812,13 +4816,13 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4845,13 +4849,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4869,7 +4873,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4887,22 +4891,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4921,16 +4925,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4980,7 +4984,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4995,21 +4999,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5032,13 +5036,13 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5089,7 +5093,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5104,25 +5108,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5141,13 +5145,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5198,7 +5202,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5213,10 +5217,10 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5227,7 +5231,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5253,10 +5257,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5307,7 +5311,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5322,21 +5326,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5359,13 +5363,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5416,7 +5420,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5445,7 +5449,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5474,7 +5478,7 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>135</v>
@@ -5527,7 +5531,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5556,11 +5560,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5582,10 +5586,10 @@
         <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>135</v>
@@ -5640,7 +5644,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5669,7 +5673,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5692,16 +5696,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5727,13 +5731,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5751,7 +5755,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5766,21 +5770,21 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5803,13 +5807,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5860,7 +5864,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5878,18 +5882,18 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5912,13 +5916,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5969,7 +5973,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5984,21 +5988,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6021,13 +6025,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6078,7 +6082,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6093,21 +6097,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6130,16 +6134,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6189,7 +6193,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6204,21 +6208,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6241,16 +6245,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6300,7 +6304,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6315,25 +6319,25 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6352,16 +6356,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6390,10 +6394,10 @@
         <v>110</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6411,7 +6415,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6426,25 +6430,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6463,16 +6467,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6522,7 +6526,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6537,21 +6541,21 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6577,10 +6581,10 @@
         <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6631,7 +6635,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6649,7 +6653,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6660,7 +6664,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6683,13 +6687,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6740,7 +6744,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6769,7 +6773,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6798,7 +6802,7 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>135</v>
@@ -6851,7 +6855,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6880,11 +6884,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6906,10 +6910,10 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>135</v>
@@ -6964,7 +6968,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6993,11 +6997,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7016,16 +7020,16 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7075,7 +7079,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>86</v>
@@ -7090,21 +7094,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7127,13 +7131,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7163,10 +7167,10 @@
         <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7184,7 +7188,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7213,7 +7217,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7236,13 +7240,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7293,7 +7297,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7311,7 +7315,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7322,7 +7326,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7345,16 +7349,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7404,7 +7408,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7422,7 +7426,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7433,7 +7437,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7459,13 +7463,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7515,7 +7519,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7533,7 +7537,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7544,7 +7548,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7567,13 +7571,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7624,7 +7628,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7653,7 +7657,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7682,7 +7686,7 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>135</v>
@@ -7735,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7764,11 +7768,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7790,10 +7794,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>135</v>
@@ -7848,7 +7852,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7877,7 +7881,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7903,10 +7907,10 @@
         <v>144</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7957,7 +7961,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7981,12 +7985,12 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8009,13 +8013,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8066,7 +8070,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8084,7 +8088,7 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8095,7 +8099,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8118,13 +8122,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8154,10 +8158,10 @@
         <v>110</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8175,7 +8179,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8193,18 +8197,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8227,13 +8231,13 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8260,13 +8264,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8284,7 +8288,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8308,12 +8312,12 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8336,19 +8340,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8373,13 +8377,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8397,7 +8401,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8415,18 +8419,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8449,13 +8453,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8485,10 +8489,10 @@
         <v>110</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8506,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8524,18 +8528,18 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8558,13 +8562,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8594,10 +8598,10 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8615,7 +8619,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8633,18 +8637,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8667,13 +8671,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8724,7 +8728,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8742,18 +8746,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8776,13 +8780,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8809,13 +8813,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8837,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8851,18 +8855,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8888,13 +8892,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8944,7 +8948,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8962,7 +8966,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -8973,7 +8977,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8996,13 +9000,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9053,7 +9057,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9082,7 +9086,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9111,7 +9115,7 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>135</v>
@@ -9164,7 +9168,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9193,11 +9197,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9219,10 +9223,10 @@
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
@@ -9277,7 +9281,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9306,7 +9310,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9329,13 +9333,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9386,7 +9390,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9401,21 +9405,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9441,13 +9445,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9476,10 +9480,10 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9497,7 +9501,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9515,7 +9519,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9526,7 +9530,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9549,16 +9553,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9584,13 +9588,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9608,7 +9612,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9637,7 +9641,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9660,13 +9664,13 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9717,7 +9721,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9735,7 +9739,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9750,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9769,13 +9773,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9826,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9841,21 +9845,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9878,16 +9882,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9937,7 +9941,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9952,10 +9956,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/encounter-pemh-profile</t>
+    <t>http://example.com/fhir/example/StructureDefinition/encounter-pemh-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T14:33:47+00:00</t>
+    <t>2023-02-09T20:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T20:39:01+00:00</t>
+    <t>2023-02-09T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known</t>
+    <t>Número do episódio no âmbito do qual foi emitida a receita</t>
   </si>
   <si>
     <t>Identifier(s) by which this encounter is known.</t>
@@ -478,6 +478,204 @@
   </si>
   <si>
     <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://spms.min-saude.pt/iop/identifiers/encounter</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Encounter.status</t>
@@ -493,7 +691,7 @@
 This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
+    <t>in-progress</t>
   </si>
   <si>
     <t>Current state of the encounter</t>
@@ -531,32 +729,10 @@
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.statusHistory.modifierExtension</t>
@@ -578,10 +754,6 @@
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>The time that the episode was in the specified status</t>
   </si>
   <si>
@@ -595,7 +767,8 @@
 </t>
   </si>
   <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
+    <t>Identificador do tipo de episódio que deu origem à prescrição - Módulo do Episódio
+e.g.: INT, CE, URG, EMER</t>
   </si>
   <si>
     <t>inpatient | outpatient | ambulatory | emergency +.</t>
@@ -638,6 +811,9 @@
     <t>Encounter.classHistory.class</t>
   </si>
   <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
     <t>Encounter.classHistory.period</t>
   </si>
   <si>
@@ -648,10 +824,6 @@
   </si>
   <si>
     <t>Encounter.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Specific type of encounter</t>
@@ -710,7 +882,7 @@
 </t>
   </si>
   <si>
-    <t>The patient ro group present at the encounter</t>
+    <t>Referência para um resource que contém informações do utente</t>
   </si>
   <si>
     <t>The patient ro group present at the encounter.</t>
@@ -1303,10 +1475,6 @@
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>The custodian organization of this Encounter record</t>
@@ -1644,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1672,16 +1840,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1689,7 +1857,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="92.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="246.83984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="24.359375" customWidth="true" bestFit="true"/>
@@ -2997,7 +3165,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3006,23 +3174,21 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3047,34 +3213,34 @@
         <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>88</v>
@@ -3089,28 +3255,28 @@
         <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3129,16 +3295,16 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3176,19 +3342,19 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3200,13 +3366,13 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>81</v>
@@ -3220,10 +3386,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3240,22 +3406,26 @@
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3279,13 +3449,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3303,7 +3473,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3321,13 +3491,13 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3342,14 +3512,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3358,21 +3528,23 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3396,13 +3568,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3420,13 +3592,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3438,13 +3610,13 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3452,44 +3624,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3498,10 +3670,10 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3537,13 +3709,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -3555,13 +3727,13 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3569,10 +3741,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3580,7 +3752,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3592,18 +3764,20 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3616,7 +3790,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3628,13 +3802,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3652,10 +3826,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3670,13 +3844,13 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3684,10 +3858,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3695,7 +3869,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3707,16 +3881,16 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3767,10 +3941,10 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3785,13 +3959,13 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3799,10 +3973,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3825,15 +3999,17 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3858,13 +4034,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3882,7 +4058,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3900,24 +4076,24 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3925,30 +4101,32 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3958,7 +4136,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -3973,13 +4151,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -3997,42 +4175,42 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4043,7 +4221,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4055,15 +4233,17 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4112,25 +4292,25 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4144,21 +4324,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4170,17 +4350,15 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4229,13 +4407,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4247,7 +4425,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4261,14 +4439,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4281,19 +4459,19 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>137</v>
@@ -4346,7 +4524,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4364,7 +4542,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4378,41 +4556,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4437,13 +4617,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4461,13 +4641,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4479,7 +4659,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4493,10 +4673,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4519,13 +4699,13 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4552,13 +4732,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4576,7 +4756,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4594,7 +4774,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4608,10 +4788,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4619,10 +4799,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4631,20 +4811,18 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4669,13 +4847,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4693,13 +4871,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4711,24 +4889,24 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4748,16 +4926,16 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4784,13 +4962,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4808,7 +4986,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4826,35 +5004,35 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4863,20 +5041,18 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4925,42 +5101,42 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4971,7 +5147,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -4980,16 +5156,16 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5040,13 +5216,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5058,28 +5234,28 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5098,15 +5274,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5155,7 +5333,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5173,7 +5351,7 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
@@ -5187,14 +5365,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5207,21 +5385,23 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5270,7 +5450,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5282,19 +5462,19 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5302,10 +5482,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5313,7 +5493,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5328,13 +5508,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5361,13 +5541,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5385,10 +5565,10 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -5403,7 +5583,7 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5417,21 +5597,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5443,17 +5623,15 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5502,13 +5680,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5520,7 +5698,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5534,14 +5712,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5554,22 +5732,22 @@
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5595,13 +5773,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5619,7 +5797,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5637,24 +5815,24 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5665,7 +5843,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5674,20 +5852,18 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5712,13 +5888,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -5736,13 +5912,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -5754,28 +5930,28 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5791,18 +5967,20 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5851,7 +6029,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5869,24 +6047,24 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5897,7 +6075,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5909,13 +6087,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5966,13 +6144,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -5984,24 +6162,24 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6012,7 +6190,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6021,16 +6199,16 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6081,13 +6259,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6099,13 +6277,13 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6113,10 +6291,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6127,7 +6305,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6136,20 +6314,18 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6198,42 +6374,42 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6256,17 +6432,15 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6315,7 +6489,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6333,13 +6507,13 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6347,14 +6521,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6370,19 +6544,19 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6408,13 +6582,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6432,7 +6606,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6450,28 +6624,28 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6484,21 +6658,23 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>140</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6547,7 +6723,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6559,13 +6735,13 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6579,10 +6755,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6593,7 +6769,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6602,18 +6778,20 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6638,13 +6816,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6662,13 +6840,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -6680,13 +6858,13 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6694,21 +6872,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -6720,17 +6898,15 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6779,13 +6955,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -6797,13 +6973,13 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6811,43 +6987,41 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>140</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6896,13 +7070,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -6914,32 +7088,32 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -6951,20 +7125,18 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7013,10 +7185,10 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>88</v>
@@ -7031,24 +7203,24 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7071,15 +7243,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7104,13 +7278,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7128,7 +7302,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7146,24 +7320,24 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7186,15 +7360,17 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7243,7 +7419,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7261,13 +7437,13 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7275,14 +7451,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7298,19 +7474,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7336,13 +7512,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7360,7 +7536,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7378,24 +7554,24 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7406,7 +7582,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7415,20 +7591,18 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7477,25 +7651,25 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7509,10 +7683,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7535,13 +7709,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7592,7 +7766,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7610,7 +7784,7 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7624,10 +7798,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7656,7 +7830,7 @@
         <v>135</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>137</v>
@@ -7709,7 +7883,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7727,7 +7901,7 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7741,14 +7915,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7773,7 +7947,7 @@
         <v>140</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>137</v>
@@ -7826,7 +8000,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7858,18 +8032,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -7884,15 +8058,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>144</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -7941,10 +8117,10 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>88</v>
@@ -7959,24 +8135,24 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>147</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7999,13 +8175,13 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8032,13 +8208,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8056,7 +8232,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8074,7 +8250,7 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>344</v>
+        <v>155</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8088,10 +8264,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8114,13 +8290,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8147,13 +8323,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8171,7 +8347,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8189,13 +8365,13 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8203,10 +8379,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8217,7 +8393,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8229,15 +8405,17 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>204</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8262,13 +8440,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8286,13 +8464,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -8304,13 +8482,13 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8318,10 +8496,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8332,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8344,20 +8522,18 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8381,13 +8557,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8405,31 +8581,31 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8437,10 +8613,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8451,7 +8627,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8463,13 +8639,13 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>369</v>
+        <v>153</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8496,13 +8672,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -8520,13 +8696,13 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>367</v>
+        <v>154</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
@@ -8538,13 +8714,13 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -8552,14 +8728,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8578,15 +8754,17 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -8611,13 +8789,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8635,7 +8813,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>161</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8653,13 +8831,13 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>379</v>
+        <v>155</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -8667,41 +8845,43 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>341</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8750,13 +8930,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>381</v>
+        <v>235</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -8768,13 +8948,13 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -8782,10 +8962,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8808,13 +8988,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8841,13 +9021,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -8865,7 +9045,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8883,13 +9063,13 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>147</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -8897,10 +9077,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8911,7 +9091,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -8923,17 +9103,15 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -8982,25 +9160,25 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9014,10 +9192,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9040,13 +9218,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>169</v>
+        <v>402</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>170</v>
+        <v>403</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9073,13 +9251,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9097,7 +9275,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>171</v>
+        <v>401</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9115,13 +9293,13 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9129,21 +9307,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9155,17 +9333,15 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9190,13 +9366,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9214,13 +9390,13 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
@@ -9232,13 +9408,13 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9246,14 +9422,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9266,24 +9442,26 @@
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9307,13 +9485,13 @@
         <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>81</v>
@@ -9331,7 +9509,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9349,13 +9527,13 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>131</v>
+        <v>421</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -9363,10 +9541,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9374,10 +9552,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9389,13 +9567,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9422,13 +9600,13 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -9446,13 +9624,13 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
@@ -9464,24 +9642,24 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>264</v>
+        <v>428</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9492,7 +9670,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -9504,17 +9682,15 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -9539,13 +9715,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>154</v>
+        <v>348</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -9563,13 +9739,13 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
@@ -9581,13 +9757,13 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
@@ -9595,10 +9771,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9621,13 +9797,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>181</v>
+        <v>397</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9678,7 +9854,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9696,13 +9872,13 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
@@ -9710,10 +9886,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9736,13 +9912,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>417</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9769,13 +9945,13 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>81</v>
@@ -9793,7 +9969,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -9811,13 +9987,13 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -9825,10 +10001,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9839,7 +10015,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -9851,16 +10027,16 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>423</v>
+        <v>225</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9910,33 +10086,961 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO71" t="s" s="2">
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$81</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,33 +429,80 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Encounter.extension:episodeServiceSpecialty</t>
+  </si>
+  <si>
+    <t>episodeServiceSpecialty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/episode-service-specialty}
+</t>
+  </si>
+  <si>
+    <t>CÓDIGO ESPECIALIDADE CONSULTA</t>
+  </si>
+  <si>
+    <t>Extensão para indicar o código e a descrição da especialidade médica da consulta ou da prestação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.extension:nextAppointmentDate</t>
+  </si>
+  <si>
+    <t>nextAppointmentDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/next-specialty-appointment-date}
+</t>
+  </si>
+  <si>
+    <t>DATA PROXIMA CONSULTA</t>
+  </si>
+  <si>
+    <t>Extensão para indicar a data e hora da próxima consulta da mesma especialidade no mesmo âmbito da emissão da prescrição</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -502,17 +552,13 @@
     <t>Encounter.identifier.extension</t>
   </si>
   <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1636,6 +1682,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1812,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1823,7 +1884,7 @@
   <cols>
     <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.3984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1831,7 +1892,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.33203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1988,7 +2049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2103,7 +2164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2220,7 +2281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2335,7 +2396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2452,7 +2513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2569,7 +2630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2686,7 +2747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2803,7 +2864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2812,7 +2873,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2822,7 +2883,7 @@
         <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>81</v>
@@ -2831,17 +2892,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2878,16 +2937,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2908,7 +2965,7 @@
         <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>81</v>
@@ -2920,45 +2977,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3007,7 +3064,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3016,16 +3073,16 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
@@ -3037,14 +3094,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3053,7 +3112,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -3062,16 +3121,16 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3122,7 +3181,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3131,64 +3190,66 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3237,13 +3298,13 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
@@ -3255,7 +3316,7 @@
         <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>81</v>
@@ -3267,16 +3328,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3292,20 +3353,18 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3342,19 +3401,19 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3372,24 +3431,24 @@
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3406,26 +3465,22 @@
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3449,31 +3504,31 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3491,35 +3546,35 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3528,23 +3583,21 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3568,37 +3621,37 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3610,24 +3663,24 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3644,23 +3697,25 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3670,10 +3725,10 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3685,13 +3740,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3709,7 +3764,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3727,24 +3782,24 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3767,18 +3822,20 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3790,7 +3847,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3802,13 +3859,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3826,7 +3883,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3844,24 +3901,24 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3884,16 +3941,18 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3902,10 +3961,10 @@
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -3941,7 +4000,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3959,24 +4018,24 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3999,16 +4058,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4022,7 +4081,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -4058,7 +4117,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4076,24 +4135,24 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4101,7 +4160,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4110,23 +4169,21 @@
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4136,7 +4193,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4151,13 +4208,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4175,10 +4232,10 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>88</v>
@@ -4193,24 +4250,24 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4221,7 +4278,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4230,19 +4287,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4298,36 +4355,36 @@
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4335,7 +4392,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4344,21 +4401,23 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4368,7 +4427,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>81</v>
@@ -4383,13 +4442,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4407,10 +4466,10 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
@@ -4425,28 +4484,28 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4465,16 +4524,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4524,7 +4583,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4536,13 +4595,13 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4554,45 +4613,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4641,13 +4698,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4659,7 +4716,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4671,23 +4728,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4699,15 +4756,17 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4732,13 +4791,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4756,13 +4815,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -4774,7 +4833,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4786,43 +4845,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4871,13 +4932,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4889,7 +4950,7 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4901,12 +4962,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4914,7 +4975,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -4926,16 +4987,16 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4962,13 +5023,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4986,10 +5047,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -5004,24 +5065,24 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5029,10 +5090,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5044,13 +5105,13 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5101,25 +5162,25 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -5131,12 +5192,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5156,16 +5217,16 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5192,13 +5253,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5216,7 +5277,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5234,28 +5295,28 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5274,17 +5335,15 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5333,7 +5392,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5345,13 +5404,13 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
@@ -5363,45 +5422,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5450,13 +5507,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5468,7 +5525,7 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
@@ -5480,23 +5537,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5508,15 +5565,17 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5541,13 +5600,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5565,13 +5624,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -5583,7 +5642,7 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5595,43 +5654,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5680,13 +5741,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5698,7 +5759,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5710,12 +5771,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5723,10 +5784,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5735,20 +5796,18 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5773,13 +5832,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5797,13 +5856,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5815,24 +5874,24 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5840,7 +5899,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5855,13 +5914,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5888,13 +5947,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -5912,10 +5971,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>88</v>
@@ -5930,35 +5989,35 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -5970,16 +6029,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6005,13 +6064,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6029,13 +6088,13 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
@@ -6047,24 +6106,24 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6075,7 +6134,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6084,16 +6143,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6120,13 +6179,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6144,13 +6203,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6162,35 +6221,35 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AO37" t="s" s="2">
+      <c r="B38" t="s" s="2">
         <v>289</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6199,18 +6258,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6259,13 +6320,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6280,21 +6341,21 @@
         <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6317,13 +6378,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6374,7 +6435,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6386,30 +6447,30 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6420,7 +6481,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6432,13 +6493,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6489,13 +6550,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6507,7 +6568,7 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6519,16 +6580,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6544,20 +6605,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6606,7 +6665,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6618,63 +6677,61 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6723,13 +6780,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6741,7 +6798,7 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6753,16 +6810,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6778,19 +6835,19 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6816,13 +6873,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6840,7 +6897,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6858,55 +6915,57 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6955,13 +7014,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -6973,24 +7032,24 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7001,7 +7060,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7013,7 +7072,7 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>318</v>
@@ -7021,7 +7080,9 @@
       <c r="M45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7046,13 +7107,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7070,13 +7131,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7088,24 +7149,24 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7125,10 +7186,10 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>325</v>
@@ -7185,7 +7246,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7215,7 +7276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>329</v>
       </c>
@@ -7240,20 +7301,18 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N47" t="s" s="2">
         <v>332</v>
       </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7332,7 +7391,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>336</v>
       </c>
@@ -7357,7 +7416,7 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>337</v>
@@ -7368,9 +7427,7 @@
       <c r="M48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7437,35 +7494,35 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AO48" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7474,19 +7531,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7512,66 +7569,66 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7582,7 +7639,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7591,18 +7648,20 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7651,53 +7710,53 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7706,18 +7765,20 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7742,13 +7803,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -7766,13 +7827,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -7784,28 +7845,28 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7821,20 +7882,18 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7883,7 +7942,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7895,13 +7954,13 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7913,45 +7972,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8000,13 +8057,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8018,7 +8075,7 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -8030,23 +8087,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8058,16 +8115,16 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>171</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
+        <v>172</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8117,13 +8174,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -8135,55 +8192,57 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>366</v>
+        <v>169</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>153</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8208,13 +8267,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8232,13 +8291,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8250,7 +8309,7 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8262,20 +8321,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8290,15 +8349,17 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8347,10 +8408,10 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>88</v>
@@ -8365,24 +8426,24 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8393,7 +8454,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8405,17 +8466,15 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8440,13 +8499,13 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8464,13 +8523,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -8482,7 +8541,7 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -8494,12 +8553,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8522,17 +8581,15 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8581,7 +8638,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8593,13 +8650,13 @@
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8611,12 +8668,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8627,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8639,15 +8696,17 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>151</v>
+        <v>392</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>152</v>
+        <v>393</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8696,13 +8755,13 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
@@ -8714,7 +8773,7 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>155</v>
+        <v>396</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8726,23 +8785,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8754,16 +8813,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>157</v>
+        <v>399</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>137</v>
+        <v>400</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8813,25 +8872,25 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>155</v>
+        <v>401</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -8843,45 +8902,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8930,13 +8987,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -8948,7 +9005,7 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -8960,23 +9017,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -8988,15 +9045,17 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9045,13 +9104,13 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>392</v>
+        <v>174</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
@@ -9063,55 +9122,57 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>398</v>
+        <v>153</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9160,13 +9221,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>248</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9178,7 +9239,7 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>400</v>
+        <v>131</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9190,12 +9251,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9218,13 +9279,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9251,31 +9312,31 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9293,24 +9354,24 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>406</v>
+        <v>161</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9333,13 +9394,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9366,13 +9427,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9390,7 +9451,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9408,19 +9469,19 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>155</v>
+        <v>413</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>414</v>
       </c>
@@ -9436,7 +9497,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9448,7 +9509,7 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>415</v>
@@ -9456,12 +9517,8 @@
       <c r="M66" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9485,13 +9542,13 @@
         <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>81</v>
@@ -9515,7 +9572,7 @@
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
@@ -9527,24 +9584,24 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="B67" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9555,7 +9612,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9567,13 +9624,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9600,66 +9657,66 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AA67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9682,16 +9739,20 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9715,14 +9776,14 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9739,7 +9800,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9757,24 +9818,24 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AM68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AO68" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="B69" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9785,7 +9846,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -9797,13 +9858,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>397</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9830,13 +9891,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -9854,13 +9915,13 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
@@ -9872,24 +9933,24 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9900,7 +9961,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -9912,13 +9973,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9945,13 +10006,13 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>81</v>
@@ -9969,13 +10030,13 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
@@ -9987,24 +10048,24 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10015,7 +10076,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10027,17 +10088,15 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>225</v>
+        <v>410</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N71" t="s" s="2">
         <v>452</v>
       </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10086,19 +10145,19 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
@@ -10110,18 +10169,18 @@
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10144,13 +10203,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>152</v>
+        <v>456</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>153</v>
+        <v>457</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10177,13 +10236,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10201,7 +10260,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>154</v>
+        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10219,28 +10278,28 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>155</v>
+        <v>460</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10259,16 +10318,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>135</v>
+        <v>463</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>157</v>
+        <v>464</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>137</v>
+        <v>465</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10318,7 +10377,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>161</v>
+        <v>462</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10330,13 +10389,13 @@
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>155</v>
+        <v>466</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10348,45 +10407,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10435,13 +10492,13 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
@@ -10453,7 +10510,7 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10465,23 +10522,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10493,15 +10550,17 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>458</v>
+        <v>171</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10550,13 +10609,13 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>457</v>
+        <v>174</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
@@ -10568,56 +10627,56 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>320</v>
+        <v>169</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>460</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>463</v>
+        <v>153</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>464</v>
+        <v>247</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>465</v>
+        <v>155</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10643,13 +10702,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -10667,13 +10726,13 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>462</v>
+        <v>248</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
@@ -10685,7 +10744,7 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -10697,12 +10756,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10710,7 +10769,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -10725,13 +10784,13 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10782,10 +10841,10 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>88</v>
@@ -10800,24 +10859,24 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>81</v>
+        <v>473</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>81</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10840,15 +10899,17 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -10873,13 +10934,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -10897,7 +10958,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10915,24 +10976,24 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10955,17 +11016,15 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>478</v>
+        <v>213</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11014,7 +11073,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11032,7 +11091,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>482</v>
+        <v>327</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11041,10 +11100,260 @@
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO81">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI80">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-pemh-profile.xlsx
+++ b/StructureDefinition-encounter-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
